--- a/data/pca/factorExposure/factorExposure_2013-03-13.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-03-13.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.000100043471668648</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.002116077770638187</v>
+      </c>
+      <c r="C2">
+        <v>-0.03327839059896754</v>
+      </c>
+      <c r="D2">
+        <v>0.002151369601958045</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.001749977456217752</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.0059611623143306</v>
+      </c>
+      <c r="C4">
+        <v>-0.08457207764492246</v>
+      </c>
+      <c r="D4">
+        <v>-0.07904142996530936</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.0003607875152649448</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01360048038577539</v>
+      </c>
+      <c r="C6">
+        <v>-0.1139113860368721</v>
+      </c>
+      <c r="D6">
+        <v>-0.03225827795153485</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.00171270718513024</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.004672833950661088</v>
+      </c>
+      <c r="C7">
+        <v>-0.05611125072081743</v>
+      </c>
+      <c r="D7">
+        <v>-0.0329999820659225</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>-0.0003103348105215305</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.005660462269641012</v>
+      </c>
+      <c r="C8">
+        <v>-0.03874807077728041</v>
+      </c>
+      <c r="D8">
+        <v>-0.04175434720940802</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.004076876461346764</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.004095362556870864</v>
+      </c>
+      <c r="C9">
+        <v>-0.07056642868653649</v>
+      </c>
+      <c r="D9">
+        <v>-0.07040852028935927</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.004217845348199737</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.005289920201393163</v>
+      </c>
+      <c r="C10">
+        <v>-0.05978551455732097</v>
+      </c>
+      <c r="D10">
+        <v>0.2000360893194545</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.002603084713817958</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.005321369459445341</v>
+      </c>
+      <c r="C11">
+        <v>-0.08077811759158637</v>
+      </c>
+      <c r="D11">
+        <v>-0.05916083816463566</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.0003516760131221868</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.003943301043575174</v>
+      </c>
+      <c r="C12">
+        <v>-0.06446687824817059</v>
+      </c>
+      <c r="D12">
+        <v>-0.04588273912240409</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.003344091649560521</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.00852790497530212</v>
+      </c>
+      <c r="C13">
+        <v>-0.06684169946031278</v>
+      </c>
+      <c r="D13">
+        <v>-0.06874751822251619</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.001230675157130807</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.001327207671232045</v>
+      </c>
+      <c r="C14">
+        <v>-0.04632949814986938</v>
+      </c>
+      <c r="D14">
+        <v>-0.007820384842516634</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.001071779756922041</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.005808536757522363</v>
+      </c>
+      <c r="C15">
+        <v>-0.04225840673525033</v>
+      </c>
+      <c r="D15">
+        <v>-0.03145342644061225</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.00115376891075646</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.004911440683845669</v>
+      </c>
+      <c r="C16">
+        <v>-0.06654523914137378</v>
+      </c>
+      <c r="D16">
+        <v>-0.04535638784761283</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>2.115663644422968e-05</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.008792393230048505</v>
+      </c>
+      <c r="C20">
+        <v>-0.06777330330721867</v>
+      </c>
+      <c r="D20">
+        <v>-0.04661572081694366</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.005350510727958218</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.009729950013540743</v>
+      </c>
+      <c r="C21">
+        <v>-0.02318826349135702</v>
+      </c>
+      <c r="D21">
+        <v>-0.03599156256640494</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01791551905899092</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.006827548549527718</v>
+      </c>
+      <c r="C22">
+        <v>-0.09472719128784832</v>
+      </c>
+      <c r="D22">
+        <v>-0.100248373111289</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01822882660010314</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.006648474189111532</v>
+      </c>
+      <c r="C23">
+        <v>-0.0955151315585325</v>
+      </c>
+      <c r="D23">
+        <v>-0.1003522579002613</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.001799972764584338</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.005025742396625581</v>
+      </c>
+      <c r="C24">
+        <v>-0.07595724038891831</v>
+      </c>
+      <c r="D24">
+        <v>-0.0580743887135469</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.003609048302386582</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.00274530898896063</v>
+      </c>
+      <c r="C25">
+        <v>-0.07852218785622567</v>
+      </c>
+      <c r="D25">
+        <v>-0.06442403370314272</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.005736728136736776</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003482218050272188</v>
+      </c>
+      <c r="C26">
+        <v>-0.04173996856984952</v>
+      </c>
+      <c r="D26">
+        <v>-0.02358812622353992</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.004306370294235896</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.001259040598718365</v>
+      </c>
+      <c r="C28">
+        <v>-0.1073829171526327</v>
+      </c>
+      <c r="D28">
+        <v>0.319238120892821</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.00115329591731591</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.002970009272196409</v>
+      </c>
+      <c r="C29">
+        <v>-0.04948793408281969</v>
+      </c>
+      <c r="D29">
+        <v>-0.003899532362759189</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.003256491783434292</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.008890608636739735</v>
+      </c>
+      <c r="C30">
+        <v>-0.1453657005302708</v>
+      </c>
+      <c r="D30">
+        <v>-0.1000415779241637</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.0007591787104554352</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.006056511936413577</v>
+      </c>
+      <c r="C31">
+        <v>-0.04525460871069741</v>
+      </c>
+      <c r="D31">
+        <v>-0.03213041133869694</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.0001149133673750959</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.003760007427510241</v>
+      </c>
+      <c r="C32">
+        <v>-0.04028618261023422</v>
+      </c>
+      <c r="D32">
+        <v>-0.02444567438774743</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.002996030183231642</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.007939041860730691</v>
+      </c>
+      <c r="C33">
+        <v>-0.08688499285936924</v>
+      </c>
+      <c r="D33">
+        <v>-0.07004194156517908</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.004233782887396428</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.003779006486320477</v>
+      </c>
+      <c r="C34">
+        <v>-0.05899962088807426</v>
+      </c>
+      <c r="D34">
+        <v>-0.04956150737585859</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>-0.002307870602882424</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.004718749567319279</v>
+      </c>
+      <c r="C35">
+        <v>-0.03926770403366846</v>
+      </c>
+      <c r="D35">
+        <v>-0.01326820035996797</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.004040048200225502</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.00145916730252157</v>
+      </c>
+      <c r="C36">
+        <v>-0.02483419396669935</v>
+      </c>
+      <c r="D36">
+        <v>-0.01957491256090301</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.002484564921864581</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.009413275938310818</v>
+      </c>
+      <c r="C38">
+        <v>-0.03368812808638919</v>
+      </c>
+      <c r="D38">
+        <v>-0.02089413363737751</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01229180418832719</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.001090706584972811</v>
+      </c>
+      <c r="C39">
+        <v>-0.1174028160643744</v>
+      </c>
+      <c r="D39">
+        <v>-0.07054025766568718</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.009330800743364977</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.002049758868737943</v>
+      </c>
+      <c r="C40">
+        <v>-0.08879831946716722</v>
+      </c>
+      <c r="D40">
+        <v>-0.01534525334949318</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>-0.0003247691928395902</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007155727822080489</v>
+      </c>
+      <c r="C41">
+        <v>-0.03795180061037739</v>
+      </c>
+      <c r="D41">
+        <v>-0.03488527191619863</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.003113361650926725</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.003518578014595631</v>
+      </c>
+      <c r="C43">
+        <v>-0.05204680019770385</v>
+      </c>
+      <c r="D43">
+        <v>-0.02364567109630281</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.002959503485954087</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.00312465127346953</v>
+      </c>
+      <c r="C44">
+        <v>-0.1126780367570129</v>
+      </c>
+      <c r="D44">
+        <v>-0.07127953374315057</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.00145570471986479</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.002272576965632408</v>
+      </c>
+      <c r="C46">
+        <v>-0.03539391602791485</v>
+      </c>
+      <c r="D46">
+        <v>-0.02736948429605687</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>0.0001004042065737749</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.002679733786321905</v>
+      </c>
+      <c r="C47">
+        <v>-0.03790263721561782</v>
+      </c>
+      <c r="D47">
+        <v>-0.02594376519194188</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.003617605237028152</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.006313296626104075</v>
+      </c>
+      <c r="C48">
+        <v>-0.02902633920643049</v>
+      </c>
+      <c r="D48">
+        <v>-0.03101903988380688</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.01339064907500879</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01447219738080322</v>
+      </c>
+      <c r="C49">
+        <v>-0.1831930351302138</v>
+      </c>
+      <c r="D49">
+        <v>-0.01347889558802918</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.0007886232809235062</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.003538027972624526</v>
+      </c>
+      <c r="C50">
+        <v>-0.04432214714111055</v>
+      </c>
+      <c r="D50">
+        <v>-0.03541142197329673</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.0003664545032516667</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.004248738283622711</v>
+      </c>
+      <c r="C51">
+        <v>-0.02550709023253035</v>
+      </c>
+      <c r="D51">
+        <v>-0.02003615527226062</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.0007026983701288337</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.02018391664476701</v>
+      </c>
+      <c r="C53">
+        <v>-0.1689881104033327</v>
+      </c>
+      <c r="D53">
+        <v>-0.03698960836313629</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.001577105916029888</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.008574178756028493</v>
+      </c>
+      <c r="C54">
+        <v>-0.05580220576531756</v>
+      </c>
+      <c r="D54">
+        <v>-0.0420111880367154</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.004112003507806902</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.009252704590395228</v>
+      </c>
+      <c r="C55">
+        <v>-0.1104295072424438</v>
+      </c>
+      <c r="D55">
+        <v>-0.043972690674752</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.003176084514612956</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.01958947019884931</v>
+      </c>
+      <c r="C56">
+        <v>-0.175662150582868</v>
+      </c>
+      <c r="D56">
+        <v>-0.03546788990454643</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.007106842700849576</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.01948433763128314</v>
+      </c>
+      <c r="C58">
+        <v>-0.1118255505888413</v>
+      </c>
+      <c r="D58">
+        <v>-0.05508705561143485</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.007002534418779746</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.008975552238822146</v>
+      </c>
+      <c r="C59">
+        <v>-0.160334893395396</v>
+      </c>
+      <c r="D59">
+        <v>0.303859162301639</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.004084817397206481</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02292331065278486</v>
+      </c>
+      <c r="C60">
+        <v>-0.2237436589844971</v>
+      </c>
+      <c r="D60">
+        <v>-0.01928197841484387</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01407287402123202</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.002163632602873926</v>
+      </c>
+      <c r="C61">
+        <v>-0.09550629855857859</v>
+      </c>
+      <c r="D61">
+        <v>-0.05650786706387111</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1689741989204279</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.1441341234113898</v>
+      </c>
+      <c r="C62">
+        <v>-0.08977272421528525</v>
+      </c>
+      <c r="D62">
+        <v>-0.0467919138364223</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.00102136679881709</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.006069386031331381</v>
+      </c>
+      <c r="C63">
+        <v>-0.05693675151844605</v>
+      </c>
+      <c r="D63">
+        <v>-0.02396452149609579</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>-0.004892552177655872</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01474616388200307</v>
+      </c>
+      <c r="C64">
+        <v>-0.1040072907105882</v>
+      </c>
+      <c r="D64">
+        <v>-0.05869002832086803</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.00241808756039224</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.01734161332237188</v>
+      </c>
+      <c r="C65">
+        <v>-0.1213432079115234</v>
+      </c>
+      <c r="D65">
+        <v>-0.01668190600273493</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.007157015033083217</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.01232203457381584</v>
+      </c>
+      <c r="C66">
+        <v>-0.1595653721580922</v>
+      </c>
+      <c r="D66">
+        <v>-0.1122577367464883</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.00385725353628243</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.01544249742509029</v>
+      </c>
+      <c r="C67">
+        <v>-0.0642123046267275</v>
+      </c>
+      <c r="D67">
+        <v>-0.02962737511008626</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.00628888432724804</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.0004382428888827169</v>
+      </c>
+      <c r="C68">
+        <v>-0.08806612243283354</v>
+      </c>
+      <c r="D68">
+        <v>0.2517644529108414</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.002885166736296653</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.005963807570668038</v>
+      </c>
+      <c r="C69">
+        <v>-0.05053106469735724</v>
+      </c>
+      <c r="D69">
+        <v>-0.03932401598738278</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>-6.49068960368485e-05</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.00186763230701907</v>
+      </c>
+      <c r="C70">
+        <v>-0.002789100776949563</v>
+      </c>
+      <c r="D70">
+        <v>-0.001100462285288301</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.0003933268525246241</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.005619566521404754</v>
+      </c>
+      <c r="C71">
+        <v>-0.09791073947067729</v>
+      </c>
+      <c r="D71">
+        <v>0.2992206524262447</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.004616030218652257</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01545037464439301</v>
+      </c>
+      <c r="C72">
+        <v>-0.1504254295649712</v>
+      </c>
+      <c r="D72">
+        <v>-0.02377567428759125</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.01282739225368791</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.02896209325719543</v>
+      </c>
+      <c r="C73">
+        <v>-0.2765147263120062</v>
+      </c>
+      <c r="D73">
+        <v>-0.04756726923752787</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.004763678462523934</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.001373535316304256</v>
+      </c>
+      <c r="C74">
+        <v>-0.1051260515611529</v>
+      </c>
+      <c r="D74">
+        <v>-0.03924979108140532</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.002260683927151392</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.01060829061894017</v>
+      </c>
+      <c r="C75">
+        <v>-0.1299289321264703</v>
+      </c>
+      <c r="D75">
+        <v>-0.02394578596380207</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.009306195873744637</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.02130182545355574</v>
+      </c>
+      <c r="C76">
+        <v>-0.1504988018658807</v>
+      </c>
+      <c r="D76">
+        <v>-0.06475372763059603</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.001092764381586992</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.0234443835166542</v>
+      </c>
+      <c r="C77">
+        <v>-0.1319101145427811</v>
+      </c>
+      <c r="D77">
+        <v>-0.05350057669347139</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.0008271492754578011</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.01429977786967661</v>
+      </c>
+      <c r="C78">
+        <v>-0.09487833846993091</v>
+      </c>
+      <c r="D78">
+        <v>-0.06653088676646676</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02409672567321252</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.03703254287450857</v>
+      </c>
+      <c r="C79">
+        <v>-0.1564873697239023</v>
+      </c>
+      <c r="D79">
+        <v>-0.03315908059655818</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.004403225085736783</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01054830235612102</v>
+      </c>
+      <c r="C80">
+        <v>-0.04287733375826362</v>
+      </c>
+      <c r="D80">
+        <v>-0.03045102861044403</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.0008621940953657867</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.01465039447191017</v>
+      </c>
+      <c r="C81">
+        <v>-0.1271374423790903</v>
+      </c>
+      <c r="D81">
+        <v>-0.04422171686114972</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.005934125126281345</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.01950493352483018</v>
+      </c>
+      <c r="C82">
+        <v>-0.1444473583557856</v>
+      </c>
+      <c r="D82">
+        <v>-0.04302252550506209</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.008999927016756684</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.009989254879261621</v>
+      </c>
+      <c r="C83">
+        <v>-0.05721945988441118</v>
+      </c>
+      <c r="D83">
+        <v>-0.05462229489620547</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01316650974846759</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.01164898020748419</v>
+      </c>
+      <c r="C84">
+        <v>-0.03774781256386762</v>
+      </c>
+      <c r="D84">
+        <v>0.006505296519063769</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01521794009505087</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.02780773818286841</v>
+      </c>
+      <c r="C85">
+        <v>-0.1299694201249802</v>
+      </c>
+      <c r="D85">
+        <v>-0.04530600570270072</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.0007219174083894978</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.005277450476434729</v>
+      </c>
+      <c r="C86">
+        <v>-0.04897769926823468</v>
+      </c>
+      <c r="D86">
+        <v>-0.02370672060034109</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.004710950382322069</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.01024517554717752</v>
+      </c>
+      <c r="C87">
+        <v>-0.1335549467435516</v>
+      </c>
+      <c r="D87">
+        <v>-0.06333359577981794</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01294932750263925</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.003133870995836179</v>
+      </c>
+      <c r="C88">
+        <v>-0.06749515377636799</v>
+      </c>
+      <c r="D88">
+        <v>-0.009270221191722033</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01455868022421081</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.002068963568176449</v>
+      </c>
+      <c r="C89">
+        <v>-0.1467688894775628</v>
+      </c>
+      <c r="D89">
+        <v>0.3510185740061312</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.002308237590223072</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.006484845482664483</v>
+      </c>
+      <c r="C90">
+        <v>-0.1220853656094817</v>
+      </c>
+      <c r="D90">
+        <v>0.3243495039604747</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.00109623208421412</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.0101611340700158</v>
+      </c>
+      <c r="C91">
+        <v>-0.1030254084757229</v>
+      </c>
+      <c r="D91">
+        <v>-0.02457565417029801</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.008824350744711981</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.000161974288151801</v>
+      </c>
+      <c r="C92">
+        <v>-0.1351598037604643</v>
+      </c>
+      <c r="D92">
+        <v>0.3352749665650874</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.0005499216190085078</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.004443438832750167</v>
+      </c>
+      <c r="C93">
+        <v>-0.1053741559466909</v>
+      </c>
+      <c r="D93">
+        <v>0.3139795107548234</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.00432146560450182</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.0222173121477435</v>
+      </c>
+      <c r="C94">
+        <v>-0.1526662247693888</v>
+      </c>
+      <c r="D94">
+        <v>-0.04761767004372031</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.005112040300454379</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01597715723557883</v>
+      </c>
+      <c r="C95">
+        <v>-0.1273472466310813</v>
+      </c>
+      <c r="D95">
+        <v>-0.06176172442029191</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>-0.00189431903295058</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03399188871534955</v>
+      </c>
+      <c r="C97">
+        <v>-0.1946716845023374</v>
+      </c>
+      <c r="D97">
+        <v>-0.006253276867540131</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>-0.004279611591528495</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.03584975692434132</v>
+      </c>
+      <c r="C98">
+        <v>-0.2465681935410733</v>
+      </c>
+      <c r="D98">
+        <v>-0.05428917729143844</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9836909460711537</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9827321830799238</v>
+      </c>
+      <c r="C99">
+        <v>0.1116231051813542</v>
+      </c>
+      <c r="D99">
+        <v>0.02828021475302047</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.001106045466628361</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.003015001322998714</v>
+      </c>
+      <c r="C101">
+        <v>-0.04951277544061999</v>
+      </c>
+      <c r="D101">
+        <v>-0.004362752615126079</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
